--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -11882,7 +11882,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="W507" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y528" sqref="Y528"/>
+      <selection pane="bottomRight" activeCell="Y529" sqref="Y529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45174,10 +45174,10 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z521" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA521" s="19">
         <v>70</v>
@@ -45242,10 +45242,10 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z522" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA522" s="19">
         <v>70</v>
@@ -45310,10 +45310,10 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z523" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA523" s="19">
         <v>70</v>
@@ -45378,10 +45378,10 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z524" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA524" s="19">
         <v>70</v>
@@ -45446,10 +45446,10 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z525" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA525" s="19">
         <v>71</v>
@@ -45514,10 +45514,10 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z526" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA526" s="19">
         <v>71</v>
@@ -45582,10 +45582,10 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z527" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA527" s="19">
         <v>71</v>
@@ -45650,10 +45650,10 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z528" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA528" s="19">
         <v>71</v>
@@ -45718,10 +45718,10 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z529" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA529" s="19">
         <v>72</v>
@@ -45786,10 +45786,10 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z530" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA530" s="19">
         <v>72</v>
@@ -45854,10 +45854,10 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z531" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA531" s="19">
         <v>72</v>
@@ -45922,10 +45922,10 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z532" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA532" s="19">
         <v>72</v>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="2111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2126">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8962,6 +8962,66 @@
   </si>
   <si>
     <t>5000000,2,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2050万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20500000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11816,13 +11876,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN556"/>
+  <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W537" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C553" sqref="C553"/>
+      <selection pane="bottomRight" activeCell="A538" sqref="A538:A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46951,7 +47011,7 @@
       </c>
     </row>
     <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="65">
+      <c r="A549" s="5">
         <v>548</v>
       </c>
       <c r="B549" s="65">
@@ -47019,7 +47079,7 @@
       </c>
     </row>
     <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="65">
+      <c r="A550" s="5">
         <v>549</v>
       </c>
       <c r="B550" s="65">
@@ -47087,7 +47147,7 @@
       </c>
     </row>
     <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="65">
+      <c r="A551" s="5">
         <v>550</v>
       </c>
       <c r="B551" s="65">
@@ -47155,7 +47215,7 @@
       </c>
     </row>
     <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="65">
+      <c r="A552" s="5">
         <v>551</v>
       </c>
       <c r="B552" s="65">
@@ -47223,7 +47283,7 @@
       </c>
     </row>
     <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="67">
+      <c r="A553" s="5">
         <v>552</v>
       </c>
       <c r="B553" s="67">
@@ -47291,7 +47351,7 @@
       </c>
     </row>
     <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="67">
+      <c r="A554" s="5">
         <v>553</v>
       </c>
       <c r="B554" s="67">
@@ -47359,7 +47419,7 @@
       </c>
     </row>
     <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="67">
+      <c r="A555" s="5">
         <v>554</v>
       </c>
       <c r="B555" s="67">
@@ -47427,7 +47487,7 @@
       </c>
     </row>
     <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="67">
+      <c r="A556" s="5">
         <v>555</v>
       </c>
       <c r="B556" s="67">
@@ -47491,6 +47551,600 @@
         <v>1</v>
       </c>
       <c r="AM556" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="19">
+        <v>10473</v>
+      </c>
+      <c r="F557" s="19">
+        <v>1</v>
+      </c>
+      <c r="G557" s="19" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J557" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L557" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M557" s="19">
+        <v>0</v>
+      </c>
+      <c r="N557" s="19">
+        <v>0</v>
+      </c>
+      <c r="O557" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P557" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q557" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R557" s="39" t="s">
+        <v>2115</v>
+      </c>
+      <c r="W557" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X557" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z557" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE557" s="19">
+        <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="AF557" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH557" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="19">
+        <v>10474</v>
+      </c>
+      <c r="F558" s="19">
+        <v>1</v>
+      </c>
+      <c r="G558" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J558" s="19" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L558" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M558" s="19">
+        <v>0</v>
+      </c>
+      <c r="N558" s="19">
+        <v>0</v>
+      </c>
+      <c r="O558" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P558" s="19">
+        <v>1800</v>
+      </c>
+      <c r="Q558" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R558" s="39" t="s">
+        <v>2117</v>
+      </c>
+      <c r="W558" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X558" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y558" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z558" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE558" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF558" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH558" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="19">
+        <v>10475</v>
+      </c>
+      <c r="F559" s="19">
+        <v>1</v>
+      </c>
+      <c r="G559" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J559" s="19" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L559" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M559" s="19">
+        <v>0</v>
+      </c>
+      <c r="N559" s="19">
+        <v>0</v>
+      </c>
+      <c r="O559" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P559" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q559" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R559" s="39" t="s">
+        <v>2119</v>
+      </c>
+      <c r="W559" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X559" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y559" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z559" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE559" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF559" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH559" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="19">
+        <v>10476</v>
+      </c>
+      <c r="F560" s="19">
+        <v>1</v>
+      </c>
+      <c r="G560" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I560" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J560" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L560" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M560" s="19">
+        <v>0</v>
+      </c>
+      <c r="N560" s="19">
+        <v>0</v>
+      </c>
+      <c r="O560" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P560" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q560" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R560" s="39" t="s">
+        <v>2115</v>
+      </c>
+      <c r="W560" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X560" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z560" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE560" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF560" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH560" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="19">
+        <v>10477</v>
+      </c>
+      <c r="F561" s="19">
+        <v>1</v>
+      </c>
+      <c r="G561" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J561" s="19" t="s">
+        <v>2120</v>
+      </c>
+      <c r="L561" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M561" s="19">
+        <v>0</v>
+      </c>
+      <c r="N561" s="19">
+        <v>0</v>
+      </c>
+      <c r="O561" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P561" s="19">
+        <v>2800</v>
+      </c>
+      <c r="Q561" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R561" s="39" t="s">
+        <v>1618</v>
+      </c>
+      <c r="W561" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X561" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y561" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z561" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE561" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF561" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH561" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="19">
+        <v>10478</v>
+      </c>
+      <c r="F562" s="19">
+        <v>1</v>
+      </c>
+      <c r="G562" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J562" s="19" t="s">
+        <v>2121</v>
+      </c>
+      <c r="L562" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M562" s="19">
+        <v>0</v>
+      </c>
+      <c r="N562" s="19">
+        <v>0</v>
+      </c>
+      <c r="O562" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P562" s="19">
+        <v>9800</v>
+      </c>
+      <c r="Q562" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R562" s="39" t="s">
+        <v>2122</v>
+      </c>
+      <c r="W562" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X562" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y562" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z562" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE562" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF562" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH562" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="19">
+        <v>10479</v>
+      </c>
+      <c r="F563" s="19">
+        <v>1</v>
+      </c>
+      <c r="G563" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I563" s="19" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J563" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L563" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M563" s="19">
+        <v>0</v>
+      </c>
+      <c r="N563" s="19">
+        <v>0</v>
+      </c>
+      <c r="O563" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P563" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q563" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R563" s="39" t="s">
+        <v>2115</v>
+      </c>
+      <c r="W563" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X563" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z563" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE563" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF563" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH563" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="19">
+        <v>10480</v>
+      </c>
+      <c r="F564" s="19">
+        <v>1</v>
+      </c>
+      <c r="G564" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J564" s="19" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L564" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M564" s="19">
+        <v>0</v>
+      </c>
+      <c r="N564" s="19">
+        <v>0</v>
+      </c>
+      <c r="O564" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P564" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q564" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R564" s="39" t="s">
+        <v>2119</v>
+      </c>
+      <c r="W564" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X564" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y564" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z564" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE564" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF564" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH564" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="19">
+        <v>10481</v>
+      </c>
+      <c r="F565" s="19">
+        <v>1</v>
+      </c>
+      <c r="G565" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J565" s="19" t="s">
+        <v>2124</v>
+      </c>
+      <c r="L565" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M565" s="19">
+        <v>0</v>
+      </c>
+      <c r="N565" s="19">
+        <v>0</v>
+      </c>
+      <c r="O565" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P565" s="19">
+        <v>19800</v>
+      </c>
+      <c r="Q565" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R565" s="39" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W565" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X565" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y565" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z565" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE565" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF565" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH565" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -11879,10 +11879,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W537" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W507" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A538" sqref="A538:A565"/>
+      <selection pane="bottomRight" activeCell="Y528" sqref="Y528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45127,819 +45127,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="5">
+    <row r="521" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="19">
         <v>520</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="19">
         <v>10437</v>
       </c>
-      <c r="F521" s="5">
-        <v>1</v>
-      </c>
-      <c r="G521" s="5" t="s">
+      <c r="F521" s="19">
+        <v>1</v>
+      </c>
+      <c r="G521" s="19" t="s">
         <v>1970</v>
       </c>
-      <c r="I521" s="5" t="s">
+      <c r="I521" s="19" t="s">
         <v>1971</v>
       </c>
-      <c r="J521" s="5" t="s">
+      <c r="J521" s="19" t="s">
         <v>1972</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="19">
         <v>-33</v>
       </c>
-      <c r="M521" s="5">
-        <v>0</v>
-      </c>
-      <c r="N521" s="5">
-        <v>0</v>
-      </c>
-      <c r="O521" s="5" t="s">
+      <c r="M521" s="19">
+        <v>0</v>
+      </c>
+      <c r="N521" s="19">
+        <v>0</v>
+      </c>
+      <c r="O521" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="5">
+      <c r="P521" s="19">
         <v>600</v>
       </c>
-      <c r="Q521" s="5" t="s">
+      <c r="Q521" s="19" t="s">
         <v>1973</v>
       </c>
-      <c r="R521" s="10" t="s">
+      <c r="R521" s="39" t="s">
         <v>2044</v>
       </c>
-      <c r="W521" s="5" t="s">
+      <c r="W521" s="19" t="s">
         <v>1974</v>
       </c>
-      <c r="X521" s="5">
+      <c r="X521" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z521" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA521" s="5">
+      <c r="Y521" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z521" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA521" s="19">
         <v>70</v>
       </c>
-      <c r="AH521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="5">
+      <c r="AH521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="19">
         <v>521</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="19">
         <v>10438</v>
       </c>
-      <c r="F522" s="5">
-        <v>1</v>
-      </c>
-      <c r="G522" s="5" t="s">
+      <c r="F522" s="19">
+        <v>1</v>
+      </c>
+      <c r="G522" s="19" t="s">
         <v>1976</v>
       </c>
-      <c r="I522" s="5" t="s">
+      <c r="I522" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="J522" s="5" t="s">
+      <c r="J522" s="19" t="s">
         <v>1978</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="19">
         <v>-33</v>
       </c>
-      <c r="M522" s="5">
-        <v>0</v>
-      </c>
-      <c r="N522" s="5">
-        <v>0</v>
-      </c>
-      <c r="O522" s="5" t="s">
+      <c r="M522" s="19">
+        <v>0</v>
+      </c>
+      <c r="N522" s="19">
+        <v>0</v>
+      </c>
+      <c r="O522" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="5">
+      <c r="P522" s="19">
         <v>1000</v>
       </c>
-      <c r="Q522" s="5" t="s">
+      <c r="Q522" s="19" t="s">
         <v>1980</v>
       </c>
-      <c r="R522" s="10" t="s">
+      <c r="R522" s="39" t="s">
         <v>1981</v>
       </c>
-      <c r="W522" s="5" t="s">
+      <c r="W522" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X522" s="5">
+      <c r="X522" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z522" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA522" s="5">
+      <c r="Y522" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z522" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA522" s="19">
         <v>70</v>
       </c>
-      <c r="AH522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="5">
+      <c r="AH522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="19">
         <v>522</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="19">
         <v>10439</v>
       </c>
-      <c r="F523" s="5">
-        <v>1</v>
-      </c>
-      <c r="G523" s="5" t="s">
+      <c r="F523" s="19">
+        <v>1</v>
+      </c>
+      <c r="G523" s="19" t="s">
         <v>1983</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="J523" s="5" t="s">
+      <c r="J523" s="19" t="s">
         <v>1984</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="19">
         <v>-33</v>
       </c>
-      <c r="M523" s="5">
-        <v>0</v>
-      </c>
-      <c r="N523" s="5">
-        <v>0</v>
-      </c>
-      <c r="O523" s="5" t="s">
+      <c r="M523" s="19">
+        <v>0</v>
+      </c>
+      <c r="N523" s="19">
+        <v>0</v>
+      </c>
+      <c r="O523" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="5">
+      <c r="P523" s="19">
         <v>1800</v>
       </c>
-      <c r="Q523" s="5" t="s">
+      <c r="Q523" s="19" t="s">
         <v>1985</v>
       </c>
-      <c r="R523" s="10" t="s">
+      <c r="R523" s="39" t="s">
         <v>1986</v>
       </c>
-      <c r="W523" s="5" t="s">
+      <c r="W523" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X523" s="5">
+      <c r="X523" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z523" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA523" s="5">
+      <c r="Y523" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z523" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA523" s="19">
         <v>70</v>
       </c>
-      <c r="AH523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="5">
+      <c r="AH523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="19">
         <v>523</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="19">
         <v>10440</v>
       </c>
-      <c r="F524" s="5">
-        <v>1</v>
-      </c>
-      <c r="G524" s="5" t="s">
+      <c r="F524" s="19">
+        <v>1</v>
+      </c>
+      <c r="G524" s="19" t="s">
         <v>1988</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="19" t="s">
         <v>1971</v>
       </c>
-      <c r="J524" s="5" t="s">
+      <c r="J524" s="19" t="s">
         <v>1989</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="19">
         <v>-33</v>
       </c>
-      <c r="M524" s="5">
-        <v>0</v>
-      </c>
-      <c r="N524" s="5">
-        <v>0</v>
-      </c>
-      <c r="O524" s="5" t="s">
+      <c r="M524" s="19">
+        <v>0</v>
+      </c>
+      <c r="N524" s="19">
+        <v>0</v>
+      </c>
+      <c r="O524" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="5">
+      <c r="P524" s="19">
         <v>4800</v>
       </c>
-      <c r="Q524" s="5" t="s">
+      <c r="Q524" s="19" t="s">
         <v>1990</v>
       </c>
-      <c r="R524" s="10" t="s">
+      <c r="R524" s="39" t="s">
         <v>1991</v>
       </c>
-      <c r="W524" s="5" t="s">
+      <c r="W524" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X524" s="5">
+      <c r="X524" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z524" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA524" s="5">
+      <c r="Y524" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z524" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA524" s="19">
         <v>70</v>
       </c>
-      <c r="AH524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="5">
+      <c r="AH524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="19">
         <v>524</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="19">
         <v>10441</v>
       </c>
-      <c r="F525" s="5">
-        <v>1</v>
-      </c>
-      <c r="G525" s="5" t="s">
+      <c r="F525" s="19">
+        <v>1</v>
+      </c>
+      <c r="G525" s="19" t="s">
         <v>1969</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="19" t="s">
         <v>1993</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="19" t="s">
         <v>1994</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="19">
         <v>-33</v>
       </c>
-      <c r="M525" s="5">
-        <v>0</v>
-      </c>
-      <c r="N525" s="5">
-        <v>0</v>
-      </c>
-      <c r="O525" s="5" t="s">
+      <c r="M525" s="19">
+        <v>0</v>
+      </c>
+      <c r="N525" s="19">
+        <v>0</v>
+      </c>
+      <c r="O525" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="5">
+      <c r="P525" s="19">
         <v>1800</v>
       </c>
-      <c r="Q525" s="5" t="s">
+      <c r="Q525" s="19" t="s">
         <v>1995</v>
       </c>
-      <c r="R525" s="10" t="s">
+      <c r="R525" s="39" t="s">
         <v>1986</v>
       </c>
-      <c r="W525" s="5" t="s">
+      <c r="W525" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X525" s="5">
+      <c r="X525" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z525" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA525" s="5">
+      <c r="Y525" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z525" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA525" s="19">
         <v>71</v>
       </c>
-      <c r="AH525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="5">
+      <c r="AH525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="19">
         <v>525</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="19">
         <v>10442</v>
       </c>
-      <c r="F526" s="5">
-        <v>1</v>
-      </c>
-      <c r="G526" s="5" t="s">
+      <c r="F526" s="19">
+        <v>1</v>
+      </c>
+      <c r="G526" s="19" t="s">
         <v>1975</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="19" t="s">
         <v>1992</v>
       </c>
-      <c r="J526" s="5" t="s">
+      <c r="J526" s="19" t="s">
         <v>1996</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="19">
         <v>-33</v>
       </c>
-      <c r="M526" s="5">
-        <v>0</v>
-      </c>
-      <c r="N526" s="5">
-        <v>0</v>
-      </c>
-      <c r="O526" s="5" t="s">
+      <c r="M526" s="19">
+        <v>0</v>
+      </c>
+      <c r="N526" s="19">
+        <v>0</v>
+      </c>
+      <c r="O526" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="5">
+      <c r="P526" s="19">
         <v>4800</v>
       </c>
-      <c r="Q526" s="5" t="s">
+      <c r="Q526" s="19" t="s">
         <v>1979</v>
       </c>
-      <c r="R526" s="10" t="s">
+      <c r="R526" s="39" t="s">
         <v>1998</v>
       </c>
-      <c r="W526" s="5" t="s">
+      <c r="W526" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X526" s="5">
+      <c r="X526" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z526" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA526" s="5">
+      <c r="Y526" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z526" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA526" s="19">
         <v>71</v>
       </c>
-      <c r="AH526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="5">
+      <c r="AH526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="19">
         <v>526</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="19">
         <v>10443</v>
       </c>
-      <c r="F527" s="5">
-        <v>1</v>
-      </c>
-      <c r="G527" s="5" t="s">
+      <c r="F527" s="19">
+        <v>1</v>
+      </c>
+      <c r="G527" s="19" t="s">
         <v>1982</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="19" t="s">
         <v>1992</v>
       </c>
-      <c r="J527" s="5" t="s">
+      <c r="J527" s="19" t="s">
         <v>1999</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="19">
         <v>-33</v>
       </c>
-      <c r="M527" s="5">
-        <v>0</v>
-      </c>
-      <c r="N527" s="5">
-        <v>0</v>
-      </c>
-      <c r="O527" s="5" t="s">
+      <c r="M527" s="19">
+        <v>0</v>
+      </c>
+      <c r="N527" s="19">
+        <v>0</v>
+      </c>
+      <c r="O527" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="5">
+      <c r="P527" s="19">
         <v>9800</v>
       </c>
-      <c r="Q527" s="5" t="s">
+      <c r="Q527" s="19" t="s">
         <v>2000</v>
       </c>
-      <c r="R527" s="10" t="s">
+      <c r="R527" s="39" t="s">
         <v>2001</v>
       </c>
-      <c r="W527" s="5" t="s">
+      <c r="W527" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X527" s="5">
+      <c r="X527" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z527" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA527" s="5">
+      <c r="Y527" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z527" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA527" s="19">
         <v>71</v>
       </c>
-      <c r="AH527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="5">
+      <c r="AH527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="19">
         <v>527</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="19">
         <v>10444</v>
       </c>
-      <c r="F528" s="5">
-        <v>1</v>
-      </c>
-      <c r="G528" s="5" t="s">
+      <c r="F528" s="19">
+        <v>1</v>
+      </c>
+      <c r="G528" s="19" t="s">
         <v>1987</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="19" t="s">
         <v>2002</v>
       </c>
-      <c r="J528" s="5" t="s">
+      <c r="J528" s="19" t="s">
         <v>2003</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="19">
         <v>-33</v>
       </c>
-      <c r="M528" s="5">
-        <v>0</v>
-      </c>
-      <c r="N528" s="5">
-        <v>0</v>
-      </c>
-      <c r="O528" s="5" t="s">
+      <c r="M528" s="19">
+        <v>0</v>
+      </c>
+      <c r="N528" s="19">
+        <v>0</v>
+      </c>
+      <c r="O528" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="5">
+      <c r="P528" s="19">
         <v>19800</v>
       </c>
-      <c r="Q528" s="5" t="s">
+      <c r="Q528" s="19" t="s">
         <v>2004</v>
       </c>
-      <c r="R528" s="10" t="s">
+      <c r="R528" s="39" t="s">
         <v>2005</v>
       </c>
-      <c r="W528" s="5" t="s">
+      <c r="W528" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X528" s="5">
+      <c r="X528" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z528" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA528" s="5">
+      <c r="Y528" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z528" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA528" s="19">
         <v>71</v>
       </c>
-      <c r="AH528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="5">
+      <c r="AH528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="19">
         <v>528</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="19">
         <v>10445</v>
       </c>
-      <c r="F529" s="5">
-        <v>1</v>
-      </c>
-      <c r="G529" s="5" t="s">
+      <c r="F529" s="19">
+        <v>1</v>
+      </c>
+      <c r="G529" s="19" t="s">
         <v>2006</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="19" t="s">
         <v>2007</v>
       </c>
-      <c r="J529" s="5" t="s">
+      <c r="J529" s="19" t="s">
         <v>2008</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="19">
         <v>-33</v>
       </c>
-      <c r="M529" s="5">
-        <v>0</v>
-      </c>
-      <c r="N529" s="5">
-        <v>0</v>
-      </c>
-      <c r="O529" s="5" t="s">
+      <c r="M529" s="19">
+        <v>0</v>
+      </c>
+      <c r="N529" s="19">
+        <v>0</v>
+      </c>
+      <c r="O529" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="5">
+      <c r="P529" s="19">
         <v>4800</v>
       </c>
-      <c r="Q529" s="5" t="s">
+      <c r="Q529" s="19" t="s">
         <v>1995</v>
       </c>
-      <c r="R529" s="10" t="s">
+      <c r="R529" s="39" t="s">
         <v>1997</v>
       </c>
-      <c r="W529" s="5" t="s">
+      <c r="W529" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X529" s="5">
+      <c r="X529" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z529" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA529" s="5">
+      <c r="Y529" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z529" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA529" s="19">
         <v>72</v>
       </c>
-      <c r="AH529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="5">
+      <c r="AH529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="19">
         <v>529</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="19">
         <v>10446</v>
       </c>
-      <c r="F530" s="5">
-        <v>1</v>
-      </c>
-      <c r="G530" s="5" t="s">
+      <c r="F530" s="19">
+        <v>1</v>
+      </c>
+      <c r="G530" s="19" t="s">
         <v>1975</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="19" t="s">
         <v>2009</v>
       </c>
-      <c r="J530" s="5" t="s">
+      <c r="J530" s="19" t="s">
         <v>2010</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="19">
         <v>-33</v>
       </c>
-      <c r="M530" s="5">
-        <v>0</v>
-      </c>
-      <c r="N530" s="5">
-        <v>0</v>
-      </c>
-      <c r="O530" s="5" t="s">
+      <c r="M530" s="19">
+        <v>0</v>
+      </c>
+      <c r="N530" s="19">
+        <v>0</v>
+      </c>
+      <c r="O530" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="5">
+      <c r="P530" s="19">
         <v>9800</v>
       </c>
-      <c r="Q530" s="5" t="s">
+      <c r="Q530" s="19" t="s">
         <v>1980</v>
       </c>
-      <c r="R530" s="10" t="s">
+      <c r="R530" s="39" t="s">
         <v>2001</v>
       </c>
-      <c r="W530" s="5" t="s">
+      <c r="W530" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X530" s="5">
+      <c r="X530" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z530" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA530" s="5">
+      <c r="Y530" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z530" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA530" s="19">
         <v>72</v>
       </c>
-      <c r="AH530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="5">
+      <c r="AH530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="19">
         <v>530</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="19">
         <v>10447</v>
       </c>
-      <c r="F531" s="5">
-        <v>1</v>
-      </c>
-      <c r="G531" s="5" t="s">
+      <c r="F531" s="19">
+        <v>1</v>
+      </c>
+      <c r="G531" s="19" t="s">
         <v>1983</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="19" t="s">
         <v>2011</v>
       </c>
-      <c r="J531" s="5" t="s">
+      <c r="J531" s="19" t="s">
         <v>2012</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="19">
         <v>-33</v>
       </c>
-      <c r="M531" s="5">
-        <v>0</v>
-      </c>
-      <c r="N531" s="5">
-        <v>0</v>
-      </c>
-      <c r="O531" s="5" t="s">
+      <c r="M531" s="19">
+        <v>0</v>
+      </c>
+      <c r="N531" s="19">
+        <v>0</v>
+      </c>
+      <c r="O531" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="5">
+      <c r="P531" s="19">
         <v>19800</v>
       </c>
-      <c r="Q531" s="5" t="s">
+      <c r="Q531" s="19" t="s">
         <v>2000</v>
       </c>
-      <c r="R531" s="10" t="s">
+      <c r="R531" s="39" t="s">
         <v>2013</v>
       </c>
-      <c r="W531" s="5" t="s">
+      <c r="W531" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X531" s="5">
+      <c r="X531" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z531" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA531" s="5">
+      <c r="Y531" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z531" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA531" s="19">
         <v>72</v>
       </c>
-      <c r="AH531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="5">
+      <c r="AH531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="19">
         <v>531</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="19">
         <v>10448</v>
       </c>
-      <c r="F532" s="5">
-        <v>1</v>
-      </c>
-      <c r="G532" s="5" t="s">
+      <c r="F532" s="19">
+        <v>1</v>
+      </c>
+      <c r="G532" s="19" t="s">
         <v>2014</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="19" t="s">
         <v>2007</v>
       </c>
-      <c r="J532" s="5" t="s">
+      <c r="J532" s="19" t="s">
         <v>2015</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="19">
         <v>-33</v>
       </c>
-      <c r="M532" s="5">
-        <v>0</v>
-      </c>
-      <c r="N532" s="5">
-        <v>0</v>
-      </c>
-      <c r="O532" s="5" t="s">
+      <c r="M532" s="19">
+        <v>0</v>
+      </c>
+      <c r="N532" s="19">
+        <v>0</v>
+      </c>
+      <c r="O532" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="5">
+      <c r="P532" s="19">
         <v>49800</v>
       </c>
-      <c r="Q532" s="5" t="s">
+      <c r="Q532" s="19" t="s">
         <v>2004</v>
       </c>
-      <c r="R532" s="10" t="s">
+      <c r="R532" s="39" t="s">
         <v>2016</v>
       </c>
-      <c r="W532" s="5" t="s">
+      <c r="W532" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="X532" s="5">
+      <c r="X532" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="5">
+      <c r="Y532" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z532" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA532" s="19">
         <v>72</v>
       </c>
-      <c r="AH532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="5">
+      <c r="AH532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="2111">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8822,6 +8822,146 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","双倍奖励卡*10","万能字*280",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,10,280,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","双倍奖励卡*6","万能字*180",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,6,180,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--98</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","双倍奖励卡*4","万能字*88",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,88,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","双倍奖励卡*2","万能字*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","太阳*1","万能字*240",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1,240,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","太阳*1","万能字*140",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,1,140,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","水滴*4","万能字*60",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","水滴*2","万能字*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,30,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8900,7 +9040,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8967,6 +9107,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9010,7 +9156,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9212,7 +9358,10 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11667,13 +11816,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN548"/>
+  <dimension ref="A1:AN556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA547" sqref="AA547:AA548"/>
+      <selection pane="bottomRight" activeCell="C553" sqref="C553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45734,615 +45883,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="47">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="47">
-        <v>1</v>
-      </c>
-      <c r="G533" s="47" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="I533" s="47" t="s">
+      <c r="I533" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="J533" s="47" t="s">
+      <c r="J533" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="L533" s="47">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="47">
-        <v>0</v>
-      </c>
-      <c r="N533" s="47">
-        <v>0</v>
-      </c>
-      <c r="O533" s="47" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P533" s="47">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="47" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="R533" s="63" t="s">
+      <c r="R533" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="W533" s="47" t="s">
+      <c r="W533" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="X533" s="47">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="47">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="47">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA533" s="5">
         <v>73</v>
       </c>
-      <c r="AH533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="47">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="47">
-        <v>1</v>
-      </c>
-      <c r="G534" s="47" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="I534" s="47" t="s">
+      <c r="I534" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="J534" s="47" t="s">
+      <c r="J534" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="L534" s="47">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="47">
-        <v>0</v>
-      </c>
-      <c r="N534" s="47">
-        <v>0</v>
-      </c>
-      <c r="O534" s="47" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P534" s="47">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="47" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="R534" s="63" t="s">
+      <c r="R534" s="10" t="s">
         <v>1270</v>
       </c>
-      <c r="W534" s="47" t="s">
+      <c r="W534" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X534" s="47">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="47">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="47">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA534" s="5">
         <v>73</v>
       </c>
-      <c r="AH534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="47">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="47">
-        <v>1</v>
-      </c>
-      <c r="G535" s="47" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="I535" s="47" t="s">
+      <c r="I535" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="J535" s="47" t="s">
+      <c r="J535" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="L535" s="47">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="47">
-        <v>0</v>
-      </c>
-      <c r="N535" s="47">
-        <v>0</v>
-      </c>
-      <c r="O535" s="47" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P535" s="47">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="47" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="R535" s="63" t="s">
+      <c r="R535" s="10" t="s">
         <v>2036</v>
       </c>
-      <c r="W535" s="47" t="s">
+      <c r="W535" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X535" s="47">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="47">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="47">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA535" s="5">
         <v>73</v>
       </c>
-      <c r="AH535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="49">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="49">
-        <v>1</v>
-      </c>
-      <c r="G536" s="49" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="I536" s="49" t="s">
+      <c r="I536" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="J536" s="49" t="s">
+      <c r="J536" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="L536" s="49">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="49">
-        <v>0</v>
-      </c>
-      <c r="N536" s="49">
-        <v>0</v>
-      </c>
-      <c r="O536" s="49" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P536" s="49">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="49" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="R536" s="64" t="s">
+      <c r="R536" s="10" t="s">
         <v>1276</v>
       </c>
-      <c r="W536" s="49" t="s">
+      <c r="W536" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X536" s="49">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="49">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="49">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA536" s="5">
         <v>74</v>
       </c>
-      <c r="AH536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="49">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="49">
-        <v>1</v>
-      </c>
-      <c r="G537" s="49" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="I537" s="49" t="s">
+      <c r="I537" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="J537" s="49" t="s">
+      <c r="J537" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="L537" s="49">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="49">
-        <v>0</v>
-      </c>
-      <c r="N537" s="49">
-        <v>0</v>
-      </c>
-      <c r="O537" s="49" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P537" s="49">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="49" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="R537" s="64" t="s">
+      <c r="R537" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="W537" s="49" t="s">
+      <c r="W537" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X537" s="49">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="49">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="49">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA537" s="5">
         <v>74</v>
       </c>
-      <c r="AH537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="49">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="49">
-        <v>1</v>
-      </c>
-      <c r="G538" s="49" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="I538" s="49" t="s">
+      <c r="I538" s="5" t="s">
         <v>2039</v>
       </c>
-      <c r="J538" s="49" t="s">
+      <c r="J538" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="L538" s="49">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="49">
-        <v>0</v>
-      </c>
-      <c r="N538" s="49">
-        <v>0</v>
-      </c>
-      <c r="O538" s="49" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="P538" s="49">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="49" t="s">
+      <c r="Q538" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="R538" s="64" t="s">
+      <c r="R538" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="W538" s="49" t="s">
+      <c r="W538" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X538" s="49">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="49">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="49">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA538" s="5">
         <v>74</v>
       </c>
-      <c r="AH538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="47">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="47">
-        <v>1</v>
-      </c>
-      <c r="G539" s="47" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="I539" s="47" t="s">
+      <c r="I539" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="J539" s="47" t="s">
+      <c r="J539" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="L539" s="47">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="47">
-        <v>0</v>
-      </c>
-      <c r="N539" s="47">
-        <v>0</v>
-      </c>
-      <c r="O539" s="47" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P539" s="47">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="47" t="s">
+      <c r="Q539" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="R539" s="63" t="s">
+      <c r="R539" s="10" t="s">
         <v>1285</v>
       </c>
-      <c r="W539" s="47" t="s">
+      <c r="W539" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X539" s="47">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="47">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="47">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA539" s="5">
         <v>75</v>
       </c>
-      <c r="AH539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="47">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="47">
-        <v>1</v>
-      </c>
-      <c r="G540" s="47" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="I540" s="47" t="s">
+      <c r="I540" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="J540" s="47" t="s">
+      <c r="J540" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="L540" s="47">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="47">
-        <v>0</v>
-      </c>
-      <c r="N540" s="47">
-        <v>0</v>
-      </c>
-      <c r="O540" s="47" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="P540" s="47">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="47" t="s">
+      <c r="Q540" s="5" t="s">
         <v>2043</v>
       </c>
-      <c r="R540" s="63" t="s">
+      <c r="R540" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="W540" s="47" t="s">
+      <c r="W540" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="X540" s="47">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="47">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="47">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA540" s="5">
         <v>75</v>
       </c>
-      <c r="AH540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="47">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="47">
-        <v>1</v>
-      </c>
-      <c r="G541" s="47" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="I541" s="47" t="s">
+      <c r="I541" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="J541" s="47" t="s">
+      <c r="J541" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="L541" s="47">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="47">
-        <v>0</v>
-      </c>
-      <c r="N541" s="47">
-        <v>0</v>
-      </c>
-      <c r="O541" s="47" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P541" s="47">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="47" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="R541" s="63" t="s">
+      <c r="R541" s="10" t="s">
         <v>1301</v>
       </c>
-      <c r="W541" s="47" t="s">
+      <c r="W541" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="X541" s="47">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="47">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="47">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA541" s="5">
         <v>75</v>
       </c>
-      <c r="AH541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="47">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
         <v>1</v>
       </c>
     </row>
@@ -46350,61 +46499,52 @@
       <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="65">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="C542" s="65"/>
-      <c r="D542" s="65"/>
-      <c r="E542" s="65"/>
-      <c r="F542" s="65">
-        <v>1</v>
-      </c>
-      <c r="G542" s="65" t="s">
+      <c r="F542" s="5">
+        <v>1</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="H542" s="65"/>
-      <c r="I542" s="65" t="s">
+      <c r="I542" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J542" s="65" t="s">
+      <c r="J542" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="K542" s="65"/>
-      <c r="L542" s="65">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="65">
-        <v>0</v>
-      </c>
-      <c r="N542" s="65">
-        <v>0</v>
-      </c>
-      <c r="O542" s="65" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="65">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="65" t="s">
+      <c r="Q542" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="R542" s="66" t="s">
+      <c r="R542" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="S542" s="65"/>
-      <c r="T542" s="65"/>
-      <c r="U542" s="65"/>
-      <c r="V542" s="65"/>
-      <c r="W542" s="65" t="s">
+      <c r="W542" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="X542" s="65">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="67">
+      <c r="Y542" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z542" s="67">
+      <c r="Z542" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH542" s="5">
@@ -46424,61 +46564,52 @@
       <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="65">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="C543" s="65"/>
-      <c r="D543" s="65"/>
-      <c r="E543" s="65"/>
-      <c r="F543" s="65">
-        <v>1</v>
-      </c>
-      <c r="G543" s="65" t="s">
+      <c r="F543" s="5">
+        <v>1</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="H543" s="65"/>
-      <c r="I543" s="65" t="s">
+      <c r="I543" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J543" s="65" t="s">
+      <c r="J543" s="5" t="s">
         <v>2052</v>
       </c>
-      <c r="K543" s="65"/>
-      <c r="L543" s="65">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="65">
-        <v>0</v>
-      </c>
-      <c r="N543" s="65">
-        <v>0</v>
-      </c>
-      <c r="O543" s="65" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="65">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="65" t="s">
+      <c r="Q543" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="R543" s="66" t="s">
+      <c r="R543" s="10" t="s">
         <v>2053</v>
       </c>
-      <c r="S543" s="65"/>
-      <c r="T543" s="65"/>
-      <c r="U543" s="65"/>
-      <c r="V543" s="65"/>
-      <c r="W543" s="65" t="s">
+      <c r="W543" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="65">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="67">
+      <c r="Y543" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z543" s="67">
+      <c r="Z543" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH543" s="5">
@@ -46498,61 +46629,52 @@
       <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="65">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="C544" s="65"/>
-      <c r="D544" s="65"/>
-      <c r="E544" s="65"/>
-      <c r="F544" s="65">
-        <v>1</v>
-      </c>
-      <c r="G544" s="65" t="s">
+      <c r="F544" s="5">
+        <v>1</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="H544" s="65"/>
-      <c r="I544" s="65" t="s">
+      <c r="I544" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J544" s="65" t="s">
+      <c r="J544" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="K544" s="65"/>
-      <c r="L544" s="65">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="65">
-        <v>0</v>
-      </c>
-      <c r="N544" s="65">
-        <v>0</v>
-      </c>
-      <c r="O544" s="65" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="65">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="65" t="s">
+      <c r="Q544" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="R544" s="66" t="s">
+      <c r="R544" s="10" t="s">
         <v>2057</v>
       </c>
-      <c r="S544" s="65"/>
-      <c r="T544" s="65"/>
-      <c r="U544" s="65"/>
-      <c r="V544" s="65"/>
-      <c r="W544" s="65" t="s">
+      <c r="W544" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="65">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="67">
+      <c r="Y544" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z544" s="67">
+      <c r="Z544" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH544" s="5">
@@ -46572,61 +46694,52 @@
       <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="65">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="C545" s="65"/>
-      <c r="D545" s="65"/>
-      <c r="E545" s="65"/>
-      <c r="F545" s="65">
-        <v>1</v>
-      </c>
-      <c r="G545" s="65" t="s">
+      <c r="F545" s="5">
+        <v>1</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="H545" s="65"/>
-      <c r="I545" s="65" t="s">
+      <c r="I545" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J545" s="65" t="s">
+      <c r="J545" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="K545" s="65"/>
-      <c r="L545" s="65">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="65">
-        <v>0</v>
-      </c>
-      <c r="N545" s="65">
-        <v>0</v>
-      </c>
-      <c r="O545" s="65" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="65">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="65" t="s">
+      <c r="Q545" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="R545" s="66" t="s">
+      <c r="R545" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="S545" s="65"/>
-      <c r="T545" s="65"/>
-      <c r="U545" s="65"/>
-      <c r="V545" s="65"/>
-      <c r="W545" s="65" t="s">
+      <c r="W545" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="65">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="67">
+      <c r="Y545" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z545" s="67">
+      <c r="Z545" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH545" s="5">
@@ -46646,61 +46759,52 @@
       <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="65">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="C546" s="65"/>
-      <c r="D546" s="65"/>
-      <c r="E546" s="65"/>
-      <c r="F546" s="65">
-        <v>1</v>
-      </c>
-      <c r="G546" s="65" t="s">
+      <c r="F546" s="5">
+        <v>1</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="H546" s="65"/>
-      <c r="I546" s="65" t="s">
+      <c r="I546" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J546" s="65" t="s">
+      <c r="J546" s="5" t="s">
         <v>2061</v>
       </c>
-      <c r="K546" s="65"/>
-      <c r="L546" s="65">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="65">
-        <v>0</v>
-      </c>
-      <c r="N546" s="65">
-        <v>0</v>
-      </c>
-      <c r="O546" s="65" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="65">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="65" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="R546" s="66" t="s">
+      <c r="R546" s="10" t="s">
         <v>2062</v>
       </c>
-      <c r="S546" s="65"/>
-      <c r="T546" s="65"/>
-      <c r="U546" s="65"/>
-      <c r="V546" s="65"/>
-      <c r="W546" s="65" t="s">
+      <c r="W546" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="65">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="67">
+      <c r="Y546" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z546" s="67">
+      <c r="Z546" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH546" s="5">
@@ -46720,61 +46824,52 @@
       <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="65">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="C547" s="65"/>
-      <c r="D547" s="65"/>
-      <c r="E547" s="65"/>
-      <c r="F547" s="65">
-        <v>1</v>
-      </c>
-      <c r="G547" s="65" t="s">
+      <c r="F547" s="5">
+        <v>1</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="H547" s="65"/>
-      <c r="I547" s="65" t="s">
+      <c r="I547" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J547" s="65" t="s">
+      <c r="J547" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="K547" s="65"/>
-      <c r="L547" s="65">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="65">
-        <v>0</v>
-      </c>
-      <c r="N547" s="65">
-        <v>0</v>
-      </c>
-      <c r="O547" s="65" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="65">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="65" t="s">
+      <c r="Q547" s="5" t="s">
         <v>2065</v>
       </c>
-      <c r="R547" s="66" t="s">
+      <c r="R547" s="10" t="s">
         <v>2066</v>
       </c>
-      <c r="S547" s="65"/>
-      <c r="T547" s="65"/>
-      <c r="U547" s="65"/>
-      <c r="V547" s="65"/>
-      <c r="W547" s="65" t="s">
+      <c r="W547" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="65">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="67">
+      <c r="Y547" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z547" s="67">
+      <c r="Z547" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH547" s="5">
@@ -46794,61 +46889,52 @@
       <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="65">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="C548" s="65"/>
-      <c r="D548" s="65"/>
-      <c r="E548" s="65"/>
-      <c r="F548" s="65">
-        <v>1</v>
-      </c>
-      <c r="G548" s="65" t="s">
+      <c r="F548" s="5">
+        <v>1</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>2067</v>
       </c>
-      <c r="H548" s="65"/>
-      <c r="I548" s="65" t="s">
+      <c r="I548" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J548" s="65" t="s">
+      <c r="J548" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="K548" s="65"/>
-      <c r="L548" s="65">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="65">
-        <v>0</v>
-      </c>
-      <c r="N548" s="65">
-        <v>0</v>
-      </c>
-      <c r="O548" s="65" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="65">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="65" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2065</v>
       </c>
-      <c r="R548" s="66" t="s">
+      <c r="R548" s="10" t="s">
         <v>2069</v>
       </c>
-      <c r="S548" s="65"/>
-      <c r="T548" s="65"/>
-      <c r="U548" s="65"/>
-      <c r="V548" s="65"/>
-      <c r="W548" s="65" t="s">
+      <c r="W548" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="65">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="67">
+      <c r="Y548" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z548" s="67">
+      <c r="Z548" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH548" s="5">
@@ -46861,6 +46947,550 @@
         <v>1</v>
       </c>
       <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="65">
+        <v>548</v>
+      </c>
+      <c r="B549" s="65">
+        <v>10465</v>
+      </c>
+      <c r="F549" s="65">
+        <v>1</v>
+      </c>
+      <c r="G549" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I549" s="65" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J549" s="65" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L549" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M549" s="65">
+        <v>0</v>
+      </c>
+      <c r="N549" s="65">
+        <v>0</v>
+      </c>
+      <c r="O549" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P549" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q549" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R549" s="66" t="s">
+        <v>2080</v>
+      </c>
+      <c r="W549" s="65" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X549" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y549" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z549" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA549" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="65">
+        <v>549</v>
+      </c>
+      <c r="B550" s="65">
+        <v>10466</v>
+      </c>
+      <c r="F550" s="65">
+        <v>1</v>
+      </c>
+      <c r="G550" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I550" s="65" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J550" s="65" t="s">
+        <v>2082</v>
+      </c>
+      <c r="L550" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M550" s="65">
+        <v>0</v>
+      </c>
+      <c r="N550" s="65">
+        <v>0</v>
+      </c>
+      <c r="O550" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P550" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q550" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R550" s="66" t="s">
+        <v>2083</v>
+      </c>
+      <c r="W550" s="65" t="s">
+        <v>2084</v>
+      </c>
+      <c r="X550" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y550" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z550" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA550" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="65">
+        <v>550</v>
+      </c>
+      <c r="B551" s="65">
+        <v>10467</v>
+      </c>
+      <c r="F551" s="65">
+        <v>1</v>
+      </c>
+      <c r="G551" s="65" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I551" s="65" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J551" s="65" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L551" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M551" s="65">
+        <v>0</v>
+      </c>
+      <c r="N551" s="65">
+        <v>0</v>
+      </c>
+      <c r="O551" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P551" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q551" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R551" s="66" t="s">
+        <v>2088</v>
+      </c>
+      <c r="W551" s="65" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X551" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y551" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z551" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA551" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="65">
+        <v>551</v>
+      </c>
+      <c r="B552" s="65">
+        <v>10468</v>
+      </c>
+      <c r="F552" s="65">
+        <v>1</v>
+      </c>
+      <c r="G552" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I552" s="65" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J552" s="65" t="s">
+        <v>2090</v>
+      </c>
+      <c r="L552" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M552" s="65">
+        <v>0</v>
+      </c>
+      <c r="N552" s="65">
+        <v>0</v>
+      </c>
+      <c r="O552" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P552" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q552" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R552" s="66" t="s">
+        <v>2091</v>
+      </c>
+      <c r="W552" s="65" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X552" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y552" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z552" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA552" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="67">
+        <v>552</v>
+      </c>
+      <c r="B553" s="67">
+        <v>10469</v>
+      </c>
+      <c r="F553" s="67">
+        <v>1</v>
+      </c>
+      <c r="G553" s="67" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I553" s="67" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J553" s="67" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L553" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M553" s="67">
+        <v>0</v>
+      </c>
+      <c r="N553" s="67">
+        <v>0</v>
+      </c>
+      <c r="O553" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P553" s="67">
+        <v>49800</v>
+      </c>
+      <c r="Q553" s="67" t="s">
+        <v>2095</v>
+      </c>
+      <c r="R553" s="68" t="s">
+        <v>2096</v>
+      </c>
+      <c r="W553" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="X553" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y553" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z553" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA553" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="67">
+        <v>553</v>
+      </c>
+      <c r="B554" s="67">
+        <v>10470</v>
+      </c>
+      <c r="F554" s="67">
+        <v>1</v>
+      </c>
+      <c r="G554" s="67" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I554" s="67" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J554" s="67" t="s">
+        <v>2099</v>
+      </c>
+      <c r="L554" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M554" s="67">
+        <v>0</v>
+      </c>
+      <c r="N554" s="67">
+        <v>0</v>
+      </c>
+      <c r="O554" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P554" s="67">
+        <v>49800</v>
+      </c>
+      <c r="Q554" s="67" t="s">
+        <v>2100</v>
+      </c>
+      <c r="R554" s="68" t="s">
+        <v>2101</v>
+      </c>
+      <c r="W554" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="X554" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y554" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z554" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA554" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="67">
+        <v>554</v>
+      </c>
+      <c r="B555" s="67">
+        <v>10471</v>
+      </c>
+      <c r="F555" s="67">
+        <v>1</v>
+      </c>
+      <c r="G555" s="67" t="s">
+        <v>2102</v>
+      </c>
+      <c r="I555" s="67" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J555" s="67" t="s">
+        <v>2103</v>
+      </c>
+      <c r="L555" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M555" s="67">
+        <v>0</v>
+      </c>
+      <c r="N555" s="67">
+        <v>0</v>
+      </c>
+      <c r="O555" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P555" s="67">
+        <v>9800</v>
+      </c>
+      <c r="Q555" s="67" t="s">
+        <v>2104</v>
+      </c>
+      <c r="R555" s="68" t="s">
+        <v>2105</v>
+      </c>
+      <c r="W555" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="X555" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y555" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z555" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA555" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="67">
+        <v>555</v>
+      </c>
+      <c r="B556" s="67">
+        <v>10472</v>
+      </c>
+      <c r="F556" s="67">
+        <v>1</v>
+      </c>
+      <c r="G556" s="67" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I556" s="67" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J556" s="67" t="s">
+        <v>2108</v>
+      </c>
+      <c r="L556" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M556" s="67">
+        <v>0</v>
+      </c>
+      <c r="N556" s="67">
+        <v>0</v>
+      </c>
+      <c r="O556" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P556" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q556" s="67" t="s">
+        <v>2109</v>
+      </c>
+      <c r="R556" s="68" t="s">
+        <v>2110</v>
+      </c>
+      <c r="W556" s="67" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X556" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y556" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z556" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA556" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="67">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -11890,10 +11890,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W554" sqref="W554"/>
+      <selection pane="bottomRight" activeCell="P551" sqref="P551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -47121,7 +47121,7 @@
         <v>100</v>
       </c>
       <c r="P550" s="65">
-        <v>49800</v>
+        <v>19800</v>
       </c>
       <c r="Q550" s="65" t="s">
         <v>2079</v>
@@ -47393,7 +47393,7 @@
         <v>100</v>
       </c>
       <c r="P554" s="67">
-        <v>49800</v>
+        <v>19800</v>
       </c>
       <c r="Q554" s="67" t="s">
         <v>2098</v>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2125">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8857,10 +8857,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>贺岁礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8909,10 +8905,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>过大年--贺岁礼包--198</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9022,6 +9014,10 @@
   </si>
   <si>
     <t>20500000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11894,10 +11890,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W519" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y546" sqref="Y546"/>
+      <selection pane="bottomRight" activeCell="W554" sqref="W554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -47066,7 +47062,7 @@
         <v>2080</v>
       </c>
       <c r="W549" s="65" t="s">
-        <v>2031</v>
+        <v>2124</v>
       </c>
       <c r="X549" s="65">
         <v>9999999</v>
@@ -47134,7 +47130,7 @@
         <v>2083</v>
       </c>
       <c r="W550" s="65" t="s">
-        <v>2084</v>
+        <v>2124</v>
       </c>
       <c r="X550" s="65">
         <v>9999999</v>
@@ -47172,13 +47168,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="65" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I551" s="65" t="s">
         <v>2085</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="J551" s="65" t="s">
         <v>2086</v>
-      </c>
-      <c r="J551" s="65" t="s">
-        <v>2087</v>
       </c>
       <c r="L551" s="65">
         <v>-31</v>
@@ -47199,10 +47195,10 @@
         <v>2079</v>
       </c>
       <c r="R551" s="66" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="W551" s="65" t="s">
-        <v>2031</v>
+        <v>2124</v>
       </c>
       <c r="X551" s="65">
         <v>9999999</v>
@@ -47243,10 +47239,10 @@
         <v>2076</v>
       </c>
       <c r="I552" s="65" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J552" s="65" t="s">
         <v>2089</v>
-      </c>
-      <c r="J552" s="65" t="s">
-        <v>2090</v>
       </c>
       <c r="L552" s="65">
         <v>-31</v>
@@ -47267,10 +47263,10 @@
         <v>2079</v>
       </c>
       <c r="R552" s="66" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="W552" s="65" t="s">
-        <v>2031</v>
+        <v>2124</v>
       </c>
       <c r="X552" s="65">
         <v>9999999</v>
@@ -47308,13 +47304,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="67" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="I553" s="67" t="s">
         <v>2077</v>
       </c>
       <c r="J553" s="67" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L553" s="67">
         <v>-31</v>
@@ -47332,13 +47328,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="67" t="s">
+        <v>2094</v>
+      </c>
+      <c r="R553" s="68" t="s">
         <v>2095</v>
       </c>
-      <c r="R553" s="68" t="s">
-        <v>2096</v>
-      </c>
       <c r="W553" s="67" t="s">
-        <v>2097</v>
+        <v>1625</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47376,13 +47372,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="67" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="I554" s="67" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="J554" s="67" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="L554" s="67">
         <v>-31</v>
@@ -47400,13 +47396,13 @@
         <v>49800</v>
       </c>
       <c r="Q554" s="67" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="R554" s="68" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="W554" s="67" t="s">
-        <v>2097</v>
+        <v>1625</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47444,13 +47440,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="67" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="I555" s="67" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J555" s="67" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="L555" s="67">
         <v>-31</v>
@@ -47468,13 +47464,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="67" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="R555" s="68" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="W555" s="67" t="s">
-        <v>2097</v>
+        <v>1625</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47512,13 +47508,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="67" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I556" s="67" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J556" s="67" t="s">
         <v>2106</v>
-      </c>
-      <c r="I556" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J556" s="67" t="s">
-        <v>2108</v>
       </c>
       <c r="L556" s="67">
         <v>-31</v>
@@ -47536,13 +47532,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="67" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="R556" s="68" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="W556" s="67" t="s">
-        <v>2031</v>
+        <v>1625</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47580,13 +47576,13 @@
         <v>1</v>
       </c>
       <c r="G557" s="19" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J557" s="19" t="s">
         <v>2112</v>
-      </c>
-      <c r="I557" s="19" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J557" s="19" t="s">
-        <v>2114</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47607,7 +47603,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="39" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47649,10 +47645,10 @@
         <v>518</v>
       </c>
       <c r="I558" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47673,7 +47669,7 @@
         <v>77</v>
       </c>
       <c r="R558" s="39" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="W558" s="19" t="s">
         <v>525</v>
@@ -47715,10 +47711,10 @@
         <v>266</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47739,7 +47735,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="39" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47778,13 +47774,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="19" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I560" s="19" t="s">
         <v>2111</v>
       </c>
-      <c r="I560" s="19" t="s">
-        <v>2113</v>
-      </c>
       <c r="J560" s="19" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47805,7 +47801,7 @@
         <v>77</v>
       </c>
       <c r="R560" s="39" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="W560" s="19" t="s">
         <v>525</v>
@@ -47847,10 +47843,10 @@
         <v>519</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47913,10 +47909,10 @@
         <v>66</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47937,7 +47933,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="39" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47976,13 +47972,13 @@
         <v>1</v>
       </c>
       <c r="G563" s="19" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -48003,7 +47999,7 @@
         <v>77</v>
       </c>
       <c r="R563" s="39" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="W563" s="19" t="s">
         <v>525</v>
@@ -48045,10 +48041,10 @@
         <v>266</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48069,7 +48065,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="39" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48111,10 +48107,10 @@
         <v>70</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48135,7 +48131,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="39" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -9017,7 +9017,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5,1,0</t>
+    <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -47062,7 +47062,7 @@
         <v>2080</v>
       </c>
       <c r="W549" s="65" t="s">
-        <v>2124</v>
+        <v>1696</v>
       </c>
       <c r="X549" s="65">
         <v>9999999</v>
@@ -47130,7 +47130,7 @@
         <v>2083</v>
       </c>
       <c r="W550" s="65" t="s">
-        <v>2124</v>
+        <v>1696</v>
       </c>
       <c r="X550" s="65">
         <v>9999999</v>
@@ -47198,7 +47198,7 @@
         <v>2087</v>
       </c>
       <c r="W551" s="65" t="s">
-        <v>2124</v>
+        <v>1696</v>
       </c>
       <c r="X551" s="65">
         <v>9999999</v>
@@ -47266,7 +47266,7 @@
         <v>2090</v>
       </c>
       <c r="W552" s="65" t="s">
-        <v>2124</v>
+        <v>1696</v>
       </c>
       <c r="X552" s="65">
         <v>9999999</v>
@@ -47334,7 +47334,7 @@
         <v>2095</v>
       </c>
       <c r="W553" s="67" t="s">
-        <v>1625</v>
+        <v>2124</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47402,7 +47402,7 @@
         <v>2099</v>
       </c>
       <c r="W554" s="67" t="s">
-        <v>1625</v>
+        <v>2124</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47470,7 +47470,7 @@
         <v>2103</v>
       </c>
       <c r="W555" s="67" t="s">
-        <v>1625</v>
+        <v>2124</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47538,7 +47538,7 @@
         <v>2108</v>
       </c>
       <c r="W556" s="67" t="s">
-        <v>1625</v>
+        <v>2124</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -9100,7 +9100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9173,6 +9173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9216,7 +9222,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9422,6 +9428,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11879,10 +11894,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W507" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y529" sqref="Y529"/>
+      <selection pane="bottomRight" activeCell="Y546" sqref="Y546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46555,458 +46570,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="69">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="69">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>1</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="69">
+        <v>1</v>
+      </c>
+      <c r="G542" s="69" t="s">
         <v>2045</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J542" s="5" t="s">
+      <c r="J542" s="69" t="s">
         <v>2048</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="69">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="69">
+        <v>0</v>
+      </c>
+      <c r="N542" s="69">
+        <v>0</v>
+      </c>
+      <c r="O542" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="69">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="69" t="s">
         <v>2049</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="70" t="s">
         <v>1488</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="69" t="s">
         <v>2050</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z542" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="69">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="69">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>1</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="69">
+        <v>1</v>
+      </c>
+      <c r="G543" s="69" t="s">
         <v>2051</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J543" s="5" t="s">
+      <c r="J543" s="69" t="s">
         <v>2052</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="69">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="69">
+        <v>0</v>
+      </c>
+      <c r="N543" s="69">
+        <v>0</v>
+      </c>
+      <c r="O543" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="69">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="69" t="s">
         <v>2049</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="70" t="s">
         <v>2053</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z543" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="69">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="69">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>1</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="69">
+        <v>1</v>
+      </c>
+      <c r="G544" s="69" t="s">
         <v>2054</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="69" t="s">
         <v>2046</v>
       </c>
-      <c r="J544" s="5" t="s">
+      <c r="J544" s="69" t="s">
         <v>2055</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="69">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="69">
+        <v>0</v>
+      </c>
+      <c r="N544" s="69">
+        <v>0</v>
+      </c>
+      <c r="O544" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="69">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="69" t="s">
         <v>2056</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="70" t="s">
         <v>2057</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z544" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="69">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="69">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>1</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="69">
+        <v>1</v>
+      </c>
+      <c r="G545" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J545" s="5" t="s">
+      <c r="J545" s="69" t="s">
         <v>2059</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="69">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="69">
+        <v>0</v>
+      </c>
+      <c r="N545" s="69">
+        <v>0</v>
+      </c>
+      <c r="O545" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="69">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="69" t="s">
         <v>2056</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="70" t="s">
         <v>1345</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z545" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="69">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="69">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>1</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="69">
+        <v>1</v>
+      </c>
+      <c r="G546" s="69" t="s">
         <v>2060</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J546" s="5" t="s">
+      <c r="J546" s="69" t="s">
         <v>2061</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="69">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="69">
+        <v>0</v>
+      </c>
+      <c r="N546" s="69">
+        <v>0</v>
+      </c>
+      <c r="O546" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="69">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="69" t="s">
         <v>1472</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="70" t="s">
         <v>2062</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z546" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="69">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="69">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>1</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="69">
+        <v>1</v>
+      </c>
+      <c r="G547" s="69" t="s">
         <v>2063</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J547" s="5" t="s">
+      <c r="J547" s="69" t="s">
         <v>2064</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="69">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="69">
+        <v>0</v>
+      </c>
+      <c r="N547" s="69">
+        <v>0</v>
+      </c>
+      <c r="O547" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="69">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="69" t="s">
         <v>2065</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="70" t="s">
         <v>2066</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z547" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="69">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="69">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>1</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="69">
+        <v>1</v>
+      </c>
+      <c r="G548" s="69" t="s">
         <v>2067</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="69" t="s">
         <v>2047</v>
       </c>
-      <c r="J548" s="5" t="s">
+      <c r="J548" s="69" t="s">
         <v>2068</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="69">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="69">
+        <v>0</v>
+      </c>
+      <c r="N548" s="69">
+        <v>0</v>
+      </c>
+      <c r="O548" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="69">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="69" t="s">
         <v>2065</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="70" t="s">
         <v>2069</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z548" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="69">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_xiaomi.xlsx
+++ b/config_2.9/shoping_config_xiaomi.xlsx
@@ -8969,11 +8969,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"20万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,</t>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8981,43 +8985,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"510万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1040万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>5100000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"300万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1020万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2050万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20500000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9218,7 +9218,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9434,6 +9434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11890,10 +11893,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P551" sqref="P551"/>
+      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -47334,7 +47337,7 @@
         <v>2095</v>
       </c>
       <c r="W553" s="67" t="s">
-        <v>2124</v>
+        <v>2113</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47402,7 +47405,7 @@
         <v>2099</v>
       </c>
       <c r="W554" s="67" t="s">
-        <v>2124</v>
+        <v>2113</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47470,7 +47473,7 @@
         <v>2103</v>
       </c>
       <c r="W555" s="67" t="s">
-        <v>2124</v>
+        <v>2113</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47538,7 +47541,7 @@
         <v>2108</v>
       </c>
       <c r="W556" s="67" t="s">
-        <v>2124</v>
+        <v>2113</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47582,7 +47585,7 @@
         <v>2111</v>
       </c>
       <c r="J557" s="19" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47602,8 +47605,8 @@
       <c r="Q557" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="39" t="s">
-        <v>2113</v>
+      <c r="R557" s="72" t="s">
+        <v>2121</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47648,7 +47651,7 @@
         <v>2111</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47668,8 +47671,8 @@
       <c r="Q558" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="39" t="s">
-        <v>2115</v>
+      <c r="R558" s="72" t="s">
+        <v>654</v>
       </c>
       <c r="W558" s="19" t="s">
         <v>525</v>
@@ -47734,8 +47737,8 @@
       <c r="Q559" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="39" t="s">
-        <v>2117</v>
+      <c r="R559" s="72" t="s">
+        <v>2122</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47780,7 +47783,7 @@
         <v>2111</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47800,8 +47803,8 @@
       <c r="Q560" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="39" t="s">
-        <v>2113</v>
+      <c r="R560" s="72" t="s">
+        <v>989</v>
       </c>
       <c r="W560" s="19" t="s">
         <v>525</v>
@@ -47846,7 +47849,7 @@
         <v>2111</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47866,7 +47869,7 @@
       <c r="Q561" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="39" t="s">
+      <c r="R561" s="72" t="s">
         <v>1618</v>
       </c>
       <c r="W561" s="19" t="s">
@@ -47912,7 +47915,7 @@
         <v>2111</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47932,8 +47935,8 @@
       <c r="Q562" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="39" t="s">
-        <v>2120</v>
+      <c r="R562" s="72" t="s">
+        <v>2123</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47975,10 +47978,10 @@
         <v>2109</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -47998,8 +48001,8 @@
       <c r="Q563" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="39" t="s">
-        <v>2113</v>
+      <c r="R563" s="72" t="s">
+        <v>989</v>
       </c>
       <c r="W563" s="19" t="s">
         <v>525</v>
@@ -48044,7 +48047,7 @@
         <v>2111</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48064,8 +48067,8 @@
       <c r="Q564" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="39" t="s">
-        <v>2117</v>
+      <c r="R564" s="72" t="s">
+        <v>2122</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48110,7 +48113,7 @@
         <v>2111</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48130,8 +48133,8 @@
       <c r="Q565" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="39" t="s">
-        <v>2123</v>
+      <c r="R565" s="72" t="s">
+        <v>2124</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>
